--- a/R5-OperationOutcome-element-map-to-R4.xlsx
+++ b/R5-OperationOutcome-element-map-to-R4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -61,15 +61,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:25.4023219-06:00</t>
+    <t>2026-02-21T13:36:58.137512-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -202,25 +199,10 @@
     <t>http://hl7.org/fhir/uv/xver/ImplementationGuide/hl7.fhir.uv.xver-r5.r4</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.severity</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.code</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.details</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.diagnostics</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.location</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.expression</t>
   </si>
 </sst>
 </file>
@@ -432,60 +414,58 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -503,190 +483,190 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="C9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="C10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="C13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -698,7 +678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,142 +686,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
